--- a/urls.xlsx
+++ b/urls.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,266 +443,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>eurarchmedres.org</t>
+          <t>www.ulutasmedicaljournal.com</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>www.dirjournal.org</t>
+          <t>experimentalbiomedicalresearch.com</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jurolsurgery.org</t>
+          <t>medicaljournal.gazi.edu.tr</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tjoddergisi.org</t>
+          <t>beslenmevediyetdergisi.org</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cyprusjmedsci.com</t>
+          <t>www.jsoah.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>www.turkiyeparazitolderg.org</t>
+          <t>actamedica.org</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>www.caybdergi.com</t>
+          <t>www.cityhealthj.org</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>raeddergisi.org</t>
+          <t>jointdrs.org</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>www.turkarchotolaryngol.net</t>
+          <t>eurjther.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>www.adlitipbulteni.com</t>
+          <t>journals.iku.edu.tr</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>www.oftalmoloji.org</t>
+          <t>www.jabsonline.org</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>www.turkjorthod.org</t>
+          <t>injectormedicaljournal.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>www.bezmialemscience.org</t>
+          <t>www.medscidiscovery.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ejgg.org</t>
+          <t>ijcmbs.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>istanbulmedicaljournal.org</t>
+          <t>saglikokuryazarligidergisi.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>namikkemalmedj.com</t>
+          <t>natprobiotech.com</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>www.turkosteoporozdergisi.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>www.hasekidergisi.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>viralhepatitisjournal.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>www.ankaratipfakultesimecmuasi.net</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>bakirkoymedj.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>www.jtgga.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>journal.archepilepsy.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>jpedres.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>www.turkjps.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>www.behmedicalbulletin.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>eajem.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>www.guncelpediatri.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>turkjanaesthesiolreanim.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>mirt.tsnmjournals.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>gulhanemedj.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>uroonkolojibulteni.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>www.jtad.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>www.turkishjic.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>meandrosmedicaljournal.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>nukleertipseminerleri.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>www.jtss.org</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>www.eurjbreasthealth.com</t>
+          <t>www.derleme.gen.tr</t>
         </is>
       </c>
     </row>
